--- a/data/PupProd_v1.xlsx
+++ b/data/PupProd_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26362cec7e0913ab/Documents/Nhydra/Projects/Harpseals/HSmod/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26362cec7e0913ab/Documents/Nhydra/Projects/Harpseals/HSmodel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E5F4427-13D7-4DE4-BCA2-D4454FC0A6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{8E5F4427-13D7-4DE4-BCA2-D4454FC0A6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAA95E9B-89C0-45EB-9C4D-8FB4A90F184C}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27120" windowHeight="14355" xr2:uid="{8EFEA3E6-E543-4C6F-AE4A-EB86BDC35D69}"/>
+    <workbookView xWindow="9180" yWindow="720" windowWidth="35415" windowHeight="20130" xr2:uid="{8EFEA3E6-E543-4C6F-AE4A-EB86BDC35D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -119,12 +119,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -445,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E91FBA-7D41-4D90-99C3-CC76519627D6}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,50 +456,50 @@
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1951</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="5">
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="3">
         <v>645000</v>
       </c>
       <c r="I2">
         <v>322500</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1960</v>
       </c>
@@ -519,7 +513,7 @@
         <v>117500</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1978</v>
       </c>
@@ -532,8 +526,12 @@
       <c r="I4">
         <v>34000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>I4*2</f>
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1979</v>
       </c>
@@ -546,8 +544,12 @@
       <c r="I5">
         <v>35000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" ref="J5:J7" si="0">I5*2</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1980</v>
       </c>
@@ -560,8 +562,12 @@
       <c r="I6">
         <v>47000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1983</v>
       </c>
@@ -574,8 +580,12 @@
       <c r="I7">
         <v>33000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1990</v>
       </c>
@@ -604,7 +614,7 @@
         <v>38800</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1994</v>
       </c>
@@ -633,7 +643,7 @@
         <v>63600</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1999</v>
       </c>
@@ -662,7 +672,7 @@
         <v>102100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2004</v>
       </c>
@@ -691,7 +701,7 @@
         <v>58200</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -720,7 +730,7 @@
         <v>117900</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2012</v>
       </c>
@@ -749,7 +759,7 @@
         <v>69500</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2017</v>
       </c>
